--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H2">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I2">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J2">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.9078655</v>
+        <v>0.8649065</v>
       </c>
       <c r="N2">
-        <v>3.815731</v>
+        <v>1.729813</v>
       </c>
       <c r="O2">
-        <v>0.01269552586568416</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P2">
-        <v>0.00849965309904553</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q2">
-        <v>9.7080228753755</v>
+        <v>4.1958421969585</v>
       </c>
       <c r="R2">
-        <v>38.832091501502</v>
+        <v>16.783368787834</v>
       </c>
       <c r="S2">
-        <v>0.0002723365965581007</v>
+        <v>3.843537145974412E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001249502793518183</v>
+        <v>1.727371298543057E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H3">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I3">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J3">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>4.007239</v>
       </c>
       <c r="O3">
-        <v>0.008888468356299806</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P3">
-        <v>0.008926242805105003</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q3">
-        <v>6.796839693206334</v>
+        <v>6.479984633983667</v>
       </c>
       <c r="R3">
-        <v>40.781038159238</v>
+        <v>38.879907803902</v>
       </c>
       <c r="S3">
-        <v>0.0001906699451743125</v>
+        <v>5.935890931292325E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001312214179876677</v>
+        <v>4.001582619047481E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H4">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I4">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J4">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.66363666666666</v>
+        <v>103.650617</v>
       </c>
       <c r="N4">
-        <v>193.99091</v>
+        <v>310.951851</v>
       </c>
       <c r="O4">
-        <v>0.4302917956590069</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P4">
-        <v>0.4321204611562404</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q4">
-        <v>329.0358067510367</v>
+        <v>502.8308060459531</v>
       </c>
       <c r="R4">
-        <v>1974.21484050622</v>
+        <v>3016.984836275718</v>
       </c>
       <c r="S4">
-        <v>0.009230354409610952</v>
+        <v>0.00460610478291777</v>
       </c>
       <c r="T4">
-        <v>0.006352444235773812</v>
+        <v>0.003105129298058444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H5">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I5">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J5">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.745477</v>
+        <v>0.2220785</v>
       </c>
       <c r="N5">
-        <v>5.236431</v>
+        <v>0.444157</v>
       </c>
       <c r="O5">
-        <v>0.01161494266836776</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P5">
-        <v>0.01166430416009097</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q5">
-        <v>8.881721821817001</v>
+        <v>1.0773492179065</v>
       </c>
       <c r="R5">
-        <v>53.290330930902</v>
+        <v>4.309396871626</v>
       </c>
       <c r="S5">
-        <v>0.0002491565917777977</v>
+        <v>9.868892927412135E-06</v>
       </c>
       <c r="T5">
-        <v>0.0001714726526205651</v>
+        <v>4.435300543162691E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.088421</v>
+        <v>4.851209</v>
       </c>
       <c r="H6">
-        <v>10.176842</v>
+        <v>9.702418</v>
       </c>
       <c r="I6">
-        <v>0.02145138369527669</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J6">
-        <v>0.01470063282533844</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.62584666666666</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N6">
-        <v>241.87754</v>
+        <v>434.038033</v>
       </c>
       <c r="O6">
-        <v>0.5365092674506413</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P6">
-        <v>0.5387893387795181</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q6">
-        <v>410.2582513214467</v>
+        <v>701.8697373439655</v>
       </c>
       <c r="R6">
-        <v>2461.54950792868</v>
+        <v>4211.218424063793</v>
       </c>
       <c r="S6">
-        <v>0.01150886615215553</v>
+        <v>0.006429370506527458</v>
       </c>
       <c r="T6">
-        <v>0.007920544239604576</v>
+        <v>0.004334253706500553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>126.8998006666666</v>
+        <v>4.851209</v>
       </c>
       <c r="H7">
-        <v>380.699402</v>
+        <v>9.702418</v>
       </c>
       <c r="I7">
-        <v>0.5349746640371925</v>
+        <v>0.01304014384878412</v>
       </c>
       <c r="J7">
-        <v>0.5499271901467973</v>
+        <v>0.008779942625320626</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.9078655</v>
+        <v>42.688082</v>
       </c>
       <c r="N7">
-        <v>3.815731</v>
+        <v>128.064246</v>
       </c>
       <c r="O7">
-        <v>0.01269552586568416</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P7">
-        <v>0.00849965309904553</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q7">
-        <v>242.1077516488103</v>
+        <v>207.088807591138</v>
       </c>
       <c r="R7">
-        <v>1452.646509892862</v>
+        <v>1242.532845546828</v>
       </c>
       <c r="S7">
-        <v>0.00679178468476987</v>
+        <v>0.001897005385638813</v>
       </c>
       <c r="T7">
-        <v>0.004674190345980626</v>
+        <v>0.00127883478104256</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H8">
         <v>380.699402</v>
       </c>
       <c r="I8">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J8">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.335746333333333</v>
+        <v>0.8649065</v>
       </c>
       <c r="N8">
-        <v>4.007239</v>
+        <v>1.729813</v>
       </c>
       <c r="O8">
-        <v>0.008888468356299806</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P8">
-        <v>0.008926242805105003</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q8">
-        <v>169.5059434412309</v>
+        <v>109.7564624453044</v>
       </c>
       <c r="R8">
-        <v>1525.553490971078</v>
+        <v>658.5387746718261</v>
       </c>
       <c r="S8">
-        <v>0.004755105372716706</v>
+        <v>0.001005407307083826</v>
       </c>
       <c r="T8">
-        <v>0.004908783624379459</v>
+        <v>0.000677778694328883</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H9">
         <v>380.699402</v>
       </c>
       <c r="I9">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J9">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>64.66363666666666</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N9">
-        <v>193.99091</v>
+        <v>4.007239</v>
       </c>
       <c r="O9">
-        <v>0.4302917956590069</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P9">
-        <v>0.4321204611562404</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q9">
-        <v>8205.802603381757</v>
+        <v>169.5059434412309</v>
       </c>
       <c r="R9">
-        <v>73852.22343043581</v>
+        <v>1525.553490971078</v>
       </c>
       <c r="S9">
-        <v>0.2301952088206375</v>
+        <v>0.001552733300008453</v>
       </c>
       <c r="T9">
-        <v>0.2376347910085895</v>
+        <v>0.001570124179482857</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H10">
         <v>380.699402</v>
       </c>
       <c r="I10">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J10">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.745477</v>
+        <v>103.650617</v>
       </c>
       <c r="N10">
-        <v>5.236431</v>
+        <v>310.951851</v>
       </c>
       <c r="O10">
-        <v>0.01161494266836776</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P10">
-        <v>0.01166430416009097</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q10">
-        <v>221.5006833682513</v>
+        <v>13153.24263627701</v>
       </c>
       <c r="R10">
-        <v>1993.506150314262</v>
+        <v>118379.1837264931</v>
       </c>
       <c r="S10">
-        <v>0.006213700051821294</v>
+        <v>0.1204882697904883</v>
       </c>
       <c r="T10">
-        <v>0.006414518011776426</v>
+        <v>0.1218377590929941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>126.8998006666666</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H11">
         <v>380.699402</v>
       </c>
       <c r="I11">
-        <v>0.5349746640371925</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J11">
-        <v>0.5499271901467973</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>80.62584666666666</v>
+        <v>0.2220785</v>
       </c>
       <c r="N11">
-        <v>241.87754</v>
+        <v>0.444157</v>
       </c>
       <c r="O11">
-        <v>0.5365092674506413</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P11">
-        <v>0.5387893387795181</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q11">
-        <v>10231.40387058123</v>
+        <v>28.18171738235234</v>
       </c>
       <c r="R11">
-        <v>92082.63483523106</v>
+        <v>169.090304294114</v>
       </c>
       <c r="S11">
-        <v>0.2870188651072471</v>
+        <v>0.0002581543168495269</v>
       </c>
       <c r="T11">
-        <v>0.2962949071560712</v>
+        <v>0.0001740304596722499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78.852752</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H12">
-        <v>236.558256</v>
+        <v>380.699402</v>
       </c>
       <c r="I12">
-        <v>0.3324215190882391</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J12">
-        <v>0.341712690759905</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.9078655</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N12">
-        <v>3.815731</v>
+        <v>434.038033</v>
       </c>
       <c r="O12">
-        <v>0.01269552586568416</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P12">
-        <v>0.00849965309904553</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q12">
-        <v>150.440445120856</v>
+        <v>18359.77995648403</v>
       </c>
       <c r="R12">
-        <v>902.642670725136</v>
+        <v>165238.0196083563</v>
       </c>
       <c r="S12">
-        <v>0.004220265993894759</v>
+        <v>0.1681819595260646</v>
       </c>
       <c r="T12">
-        <v>0.002904439331000614</v>
+        <v>0.170065626339851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>78.852752</v>
+        <v>126.8998006666667</v>
       </c>
       <c r="H13">
-        <v>236.558256</v>
+        <v>380.699402</v>
       </c>
       <c r="I13">
-        <v>0.3324215190882391</v>
+        <v>0.3411091245657247</v>
       </c>
       <c r="J13">
-        <v>0.341712690759905</v>
+        <v>0.3445037007325259</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.335746333333333</v>
+        <v>42.688082</v>
       </c>
       <c r="N13">
-        <v>4.007239</v>
+        <v>128.064246</v>
       </c>
       <c r="O13">
-        <v>0.008888468356299806</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P13">
-        <v>0.008926242805105003</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q13">
-        <v>105.3272743572427</v>
+        <v>5417.109096642322</v>
       </c>
       <c r="R13">
-        <v>947.9454692151841</v>
+        <v>48753.9818697809</v>
       </c>
       <c r="S13">
-        <v>0.002954718153368925</v>
+        <v>0.04962260032522998</v>
       </c>
       <c r="T13">
-        <v>0.003050210447308673</v>
+        <v>0.05017838196619685</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H14">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I14">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J14">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>64.66363666666666</v>
+        <v>0.8649065</v>
       </c>
       <c r="N14">
-        <v>193.99091</v>
+        <v>1.729813</v>
       </c>
       <c r="O14">
-        <v>0.4302917956590069</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P14">
-        <v>0.4321204611562404</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q14">
-        <v>5098.905705494773</v>
+        <v>191.8688727112804</v>
       </c>
       <c r="R14">
-        <v>45890.15134945296</v>
+        <v>1151.213236267682</v>
       </c>
       <c r="S14">
-        <v>0.1430382523641733</v>
+        <v>0.001757585497273019</v>
       </c>
       <c r="T14">
-        <v>0.1476610455141099</v>
+        <v>0.001184847171012024</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H15">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I15">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J15">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>1.745477</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N15">
-        <v>5.236431</v>
+        <v>4.007239</v>
       </c>
       <c r="O15">
-        <v>0.01161494266836776</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P15">
-        <v>0.01166430416009097</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q15">
-        <v>137.635665002704</v>
+        <v>296.318900603583</v>
       </c>
       <c r="R15">
-        <v>1238.720985024336</v>
+        <v>2666.870105432246</v>
       </c>
       <c r="S15">
-        <v>0.003861056885941616</v>
+        <v>0.002714384021281235</v>
       </c>
       <c r="T15">
-        <v>0.00398584076038664</v>
+        <v>0.002744785588221993</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>78.852752</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H16">
-        <v>236.558256</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I16">
-        <v>0.3324215190882391</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J16">
-        <v>0.341712690759905</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.62584666666666</v>
+        <v>103.650617</v>
       </c>
       <c r="N16">
-        <v>241.87754</v>
+        <v>310.951851</v>
       </c>
       <c r="O16">
-        <v>0.5365092674506413</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P16">
-        <v>0.5387893387795181</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q16">
-        <v>6357.569891996693</v>
+        <v>22993.61496256378</v>
       </c>
       <c r="R16">
-        <v>57218.12902797024</v>
+        <v>206942.5346630741</v>
       </c>
       <c r="S16">
-        <v>0.1783472256908605</v>
+        <v>0.2106294972029927</v>
       </c>
       <c r="T16">
-        <v>0.1841111547070992</v>
+        <v>0.2129885837245427</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.2605715</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H17">
-        <v>28.521143</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I17">
-        <v>0.06011864799717388</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J17">
-        <v>0.04119930829249108</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>1.9078655</v>
+        <v>0.2220785</v>
       </c>
       <c r="N17">
-        <v>3.815731</v>
+        <v>0.444157</v>
       </c>
       <c r="O17">
-        <v>0.01269552586568416</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P17">
-        <v>0.00849965309904553</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q17">
-        <v>27.20725237513325</v>
+        <v>49.26538469581634</v>
       </c>
       <c r="R17">
-        <v>108.829009500533</v>
+        <v>295.5923081748981</v>
       </c>
       <c r="S17">
-        <v>0.000763237850658082</v>
+        <v>0.000451288030389581</v>
       </c>
       <c r="T17">
-        <v>0.000350179828406804</v>
+        <v>0.0003042283558599614</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.2605715</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H18">
-        <v>28.521143</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I18">
-        <v>0.06011864799717388</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J18">
-        <v>0.04119930829249108</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>1.335746333333333</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N18">
-        <v>4.007239</v>
+        <v>434.038033</v>
       </c>
       <c r="O18">
-        <v>0.008888468356299806</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P18">
-        <v>0.008926242805105003</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q18">
-        <v>19.04850609236284</v>
+        <v>32095.33365958498</v>
       </c>
       <c r="R18">
-        <v>114.291036554177</v>
+        <v>288858.0029362648</v>
       </c>
       <c r="S18">
-        <v>0.0005343627003464067</v>
+        <v>0.2940044008863801</v>
       </c>
       <c r="T18">
-        <v>0.0003677550292211514</v>
+        <v>0.2972973006398225</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.2605715</v>
+        <v>221.8377046666667</v>
       </c>
       <c r="H19">
-        <v>28.521143</v>
+        <v>665.5131140000001</v>
       </c>
       <c r="I19">
-        <v>0.06011864799717388</v>
+        <v>0.596304051204024</v>
       </c>
       <c r="J19">
-        <v>0.04119930829249108</v>
+        <v>0.6022382211649164</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>64.66363666666666</v>
+        <v>42.688082</v>
       </c>
       <c r="N19">
-        <v>193.99091</v>
+        <v>128.064246</v>
       </c>
       <c r="O19">
-        <v>0.4302917956590069</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P19">
-        <v>0.4321204611562404</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q19">
-        <v>922.1404141350215</v>
+        <v>9469.826127502451</v>
       </c>
       <c r="R19">
-        <v>5532.842484810129</v>
+        <v>85228.43514752205</v>
       </c>
       <c r="S19">
-        <v>0.02586856099929571</v>
+        <v>0.08674689556570728</v>
       </c>
       <c r="T19">
-        <v>0.01780306409866937</v>
+        <v>0.08771847568545725</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H20">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I20">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J20">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>1.745477</v>
+        <v>0.8649065</v>
       </c>
       <c r="N20">
-        <v>5.236431</v>
+        <v>1.729813</v>
       </c>
       <c r="O20">
-        <v>0.01161494266836776</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P20">
-        <v>0.01166430416009097</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q20">
-        <v>24.8914995601055</v>
+        <v>5.31567253612825</v>
       </c>
       <c r="R20">
-        <v>149.348997360633</v>
+        <v>21.262690144513</v>
       </c>
       <c r="S20">
-        <v>0.0006982746497869567</v>
+        <v>4.86934062087822E-05</v>
       </c>
       <c r="T20">
-        <v>0.0004805612631089742</v>
+        <v>2.188390254051382E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.2605715</v>
+        <v>6.1459505</v>
       </c>
       <c r="H21">
-        <v>28.521143</v>
+        <v>12.291901</v>
       </c>
       <c r="I21">
-        <v>0.06011864799717388</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J21">
-        <v>0.04119930829249108</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>80.62584666666666</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N21">
-        <v>241.87754</v>
+        <v>4.007239</v>
       </c>
       <c r="O21">
-        <v>0.5365092674506413</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P21">
-        <v>0.5387893387795181</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q21">
-        <v>1149.770651138037</v>
+        <v>8.209430845223167</v>
       </c>
       <c r="R21">
-        <v>6898.623906828219</v>
+        <v>49.256585071339</v>
       </c>
       <c r="S21">
-        <v>0.03225421179708672</v>
+        <v>7.520123712897451E-05</v>
       </c>
       <c r="T21">
-        <v>0.02219774807308479</v>
+        <v>5.069566926167513E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.520605</v>
+        <v>6.1459505</v>
       </c>
       <c r="H22">
-        <v>7.561814999999999</v>
+        <v>12.291901</v>
       </c>
       <c r="I22">
-        <v>0.01062617755080268</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J22">
-        <v>0.01092317890050141</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.9078655</v>
+        <v>103.650617</v>
       </c>
       <c r="N22">
-        <v>3.815731</v>
+        <v>310.951851</v>
       </c>
       <c r="O22">
-        <v>0.01269552586568416</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P22">
-        <v>0.00849965309904553</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q22">
-        <v>4.8089753186275</v>
+        <v>637.0315613764585</v>
       </c>
       <c r="R22">
-        <v>28.853851911765</v>
+        <v>3822.189368258751</v>
       </c>
       <c r="S22">
-        <v>0.0001349049119495677</v>
+        <v>0.005835430300699446</v>
       </c>
       <c r="T22">
-        <v>9.284323139307555E-05</v>
+        <v>0.003933858747781624</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.520605</v>
+        <v>6.1459505</v>
       </c>
       <c r="H23">
-        <v>7.561814999999999</v>
+        <v>12.291901</v>
       </c>
       <c r="I23">
-        <v>0.01062617755080268</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J23">
-        <v>0.01092317890050141</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>1.335746333333333</v>
+        <v>0.2220785</v>
       </c>
       <c r="N23">
-        <v>4.007239</v>
+        <v>0.444157</v>
       </c>
       <c r="O23">
-        <v>0.008888468356299806</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P23">
-        <v>0.008926242805105003</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q23">
-        <v>3.366888886531667</v>
+        <v>1.36488346811425</v>
       </c>
       <c r="R23">
-        <v>30.301999978785</v>
+        <v>5.459533872457</v>
       </c>
       <c r="S23">
-        <v>9.445044290873296E-05</v>
+        <v>1.25028065007455E-05</v>
       </c>
       <c r="T23">
-        <v>9.750294706947549E-05</v>
+        <v>5.619040035360466E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.520605</v>
+        <v>6.1459505</v>
       </c>
       <c r="H24">
-        <v>7.561814999999999</v>
+        <v>12.291901</v>
       </c>
       <c r="I24">
-        <v>0.01062617755080268</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J24">
-        <v>0.01092317890050141</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>64.66363666666666</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N24">
-        <v>193.99091</v>
+        <v>434.038033</v>
       </c>
       <c r="O24">
-        <v>0.4302917956590069</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P24">
-        <v>0.4321204611562404</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q24">
-        <v>162.9914859001833</v>
+        <v>889.192088645122</v>
       </c>
       <c r="R24">
-        <v>1466.92337310165</v>
+        <v>5335.152531870733</v>
       </c>
       <c r="S24">
-        <v>0.004572357019326312</v>
+        <v>0.008145308288980682</v>
       </c>
       <c r="T24">
-        <v>0.004720129103776785</v>
+        <v>0.005491024759929726</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.520605</v>
+        <v>6.1459505</v>
       </c>
       <c r="H25">
-        <v>7.561814999999999</v>
+        <v>12.291901</v>
       </c>
       <c r="I25">
-        <v>0.01062617755080268</v>
+        <v>0.01652043410364441</v>
       </c>
       <c r="J25">
-        <v>0.01092317890050141</v>
+        <v>0.01112322572951621</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.745477</v>
+        <v>42.688082</v>
       </c>
       <c r="N25">
-        <v>5.236431</v>
+        <v>128.064246</v>
       </c>
       <c r="O25">
-        <v>0.01161494266836776</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P25">
-        <v>0.01166430416009097</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q25">
-        <v>4.399658053584999</v>
+        <v>262.358838911941</v>
       </c>
       <c r="R25">
-        <v>39.59692248226499</v>
+        <v>1574.153033471646</v>
       </c>
       <c r="S25">
-        <v>0.0001234224430364696</v>
+        <v>0.00240329806412578</v>
       </c>
       <c r="T25">
-        <v>0.0001274112810905365</v>
+        <v>0.001620143609967312</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.520605</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H26">
-        <v>7.561814999999999</v>
+        <v>24.269974</v>
       </c>
       <c r="I26">
-        <v>0.01062617755080268</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J26">
-        <v>0.01092317890050141</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>80.62584666666666</v>
+        <v>0.8649065</v>
       </c>
       <c r="N26">
-        <v>241.87754</v>
+        <v>1.729813</v>
       </c>
       <c r="O26">
-        <v>0.5365092674506413</v>
+        <v>0.002947465296813262</v>
       </c>
       <c r="P26">
-        <v>0.5387893387795181</v>
+        <v>0.001967406134934711</v>
       </c>
       <c r="Q26">
-        <v>203.2259122372333</v>
+        <v>6.997086089143667</v>
       </c>
       <c r="R26">
-        <v>1829.0332101351</v>
+        <v>41.982516534862</v>
       </c>
       <c r="S26">
-        <v>0.005701042733581594</v>
+        <v>6.409573819696848E-05</v>
       </c>
       <c r="T26">
-        <v>0.005885292337171538</v>
+        <v>4.320908097753181E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.584972333333335</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H27">
-        <v>28.754917</v>
+        <v>24.269974</v>
       </c>
       <c r="I27">
-        <v>0.04040760763131528</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J27">
-        <v>0.0415369990749667</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K27">
         <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>1.9078655</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N27">
-        <v>3.815731</v>
+        <v>4.007239</v>
       </c>
       <c r="O27">
-        <v>0.01269552586568416</v>
+        <v>0.004552013382770923</v>
       </c>
       <c r="P27">
-        <v>0.00849965309904553</v>
+        <v>0.004557640966248742</v>
       </c>
       <c r="Q27">
-        <v>18.28683803322117</v>
+        <v>10.80617626019845</v>
       </c>
       <c r="R27">
-        <v>109.721028199327</v>
+        <v>97.25558634178601</v>
       </c>
       <c r="S27">
-        <v>0.0005129958278537796</v>
+        <v>9.898832680630094E-05</v>
       </c>
       <c r="T27">
-        <v>0.000353050082912592</v>
+        <v>0.0001000970130570898</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.584972333333335</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H28">
-        <v>28.754917</v>
+        <v>24.269974</v>
       </c>
       <c r="I28">
-        <v>0.04040760763131528</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J28">
-        <v>0.0415369990749667</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.335746333333333</v>
+        <v>103.650617</v>
       </c>
       <c r="N28">
-        <v>4.007239</v>
+        <v>310.951851</v>
       </c>
       <c r="O28">
-        <v>0.008888468356299806</v>
+        <v>0.353224997847493</v>
       </c>
       <c r="P28">
-        <v>0.008926242805105003</v>
+        <v>0.3536616844287238</v>
       </c>
       <c r="Q28">
-        <v>12.80309164935145</v>
+        <v>838.5325932246528</v>
       </c>
       <c r="R28">
-        <v>115.227824844163</v>
+        <v>7546.793339021875</v>
       </c>
       <c r="S28">
-        <v>0.0003591617417847244</v>
+        <v>0.007681249720271788</v>
       </c>
       <c r="T28">
-        <v>0.0003707693391385747</v>
+        <v>0.007767281035564195</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.584972333333335</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H29">
-        <v>28.754917</v>
+        <v>24.269974</v>
       </c>
       <c r="I29">
-        <v>0.04040760763131528</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J29">
-        <v>0.0415369990749667</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>64.66363666666666</v>
+        <v>0.2220785</v>
       </c>
       <c r="N29">
-        <v>193.99091</v>
+        <v>0.444157</v>
       </c>
       <c r="O29">
-        <v>0.4302917956590069</v>
+        <v>0.0007568085936668807</v>
       </c>
       <c r="P29">
-        <v>0.4321204611562404</v>
+        <v>0.0005051628162548184</v>
       </c>
       <c r="Q29">
-        <v>619.7991684227189</v>
+        <v>1.796613140319667</v>
       </c>
       <c r="R29">
-        <v>5578.19251580447</v>
+        <v>10.779678841918</v>
       </c>
       <c r="S29">
-        <v>0.01738706204596324</v>
+        <v>1.645760020901157E-05</v>
       </c>
       <c r="T29">
-        <v>0.01794898719532094</v>
+        <v>1.109461877077903E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.584972333333335</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H30">
-        <v>28.754917</v>
+        <v>24.269974</v>
       </c>
       <c r="I30">
-        <v>0.04040760763131528</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J30">
-        <v>0.0415369990749667</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.745477</v>
+        <v>144.6793443333333</v>
       </c>
       <c r="N30">
-        <v>5.236431</v>
+        <v>434.038033</v>
       </c>
       <c r="O30">
-        <v>0.01161494266836776</v>
+        <v>0.4930444465247936</v>
       </c>
       <c r="P30">
-        <v>0.01166430416009097</v>
+        <v>0.4936539897198103</v>
       </c>
       <c r="Q30">
-        <v>16.73034875346967</v>
+        <v>1170.454641769016</v>
       </c>
       <c r="R30">
-        <v>150.573138781227</v>
+        <v>10534.09177592114</v>
       </c>
       <c r="S30">
-        <v>0.0004693320460036265</v>
+        <v>0.01072177093928464</v>
       </c>
       <c r="T30">
-        <v>0.000484500191107829</v>
+        <v>0.01084185661411125</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.584972333333335</v>
+        <v>8.089991333333334</v>
       </c>
       <c r="H31">
-        <v>28.754917</v>
+        <v>24.269974</v>
       </c>
       <c r="I31">
-        <v>0.04040760763131528</v>
+        <v>0.02174605355532683</v>
       </c>
       <c r="J31">
-        <v>0.0415369990749667</v>
+        <v>0.02196246123780931</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.62584666666666</v>
+        <v>42.688082</v>
       </c>
       <c r="N31">
-        <v>241.87754</v>
+        <v>128.064246</v>
       </c>
       <c r="O31">
-        <v>0.5365092674506413</v>
+        <v>0.1454742683544624</v>
       </c>
       <c r="P31">
-        <v>0.5387893387795181</v>
+        <v>0.1456541159340275</v>
       </c>
       <c r="Q31">
-        <v>772.7965096515757</v>
+        <v>345.3462134166227</v>
       </c>
       <c r="R31">
-        <v>6955.16858686418</v>
+        <v>3108.115920749604</v>
       </c>
       <c r="S31">
-        <v>0.0216790559697099</v>
+        <v>0.003163491230558127</v>
       </c>
       <c r="T31">
-        <v>0.02237969226648676</v>
+        <v>0.003198922875328463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4.196470000000001</v>
+      </c>
+      <c r="H32">
+        <v>12.58941</v>
+      </c>
+      <c r="I32">
+        <v>0.011280192722496</v>
+      </c>
+      <c r="J32">
+        <v>0.01139244850991142</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.8649065</v>
+      </c>
+      <c r="N32">
+        <v>1.729813</v>
+      </c>
+      <c r="O32">
+        <v>0.002947465296813262</v>
+      </c>
+      <c r="P32">
+        <v>0.001967406134934711</v>
+      </c>
+      <c r="Q32">
+        <v>3.629554180055</v>
+      </c>
+      <c r="R32">
+        <v>21.77732508033</v>
+      </c>
+      <c r="S32">
+        <v>3.324797659092247E-05</v>
+      </c>
+      <c r="T32">
+        <v>2.241357309032753E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4.196470000000001</v>
+      </c>
+      <c r="H33">
+        <v>12.58941</v>
+      </c>
+      <c r="I33">
+        <v>0.011280192722496</v>
+      </c>
+      <c r="J33">
+        <v>0.01139244850991142</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>1.335746333333333</v>
+      </c>
+      <c r="N33">
+        <v>4.007239</v>
+      </c>
+      <c r="O33">
+        <v>0.004552013382770923</v>
+      </c>
+      <c r="P33">
+        <v>0.004557640966248742</v>
+      </c>
+      <c r="Q33">
+        <v>5.605419415443334</v>
+      </c>
+      <c r="R33">
+        <v>50.44877473899</v>
+      </c>
+      <c r="S33">
+        <v>5.134758823303697E-05</v>
+      </c>
+      <c r="T33">
+        <v>5.192269003465173E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4.196470000000001</v>
+      </c>
+      <c r="H34">
+        <v>12.58941</v>
+      </c>
+      <c r="I34">
+        <v>0.011280192722496</v>
+      </c>
+      <c r="J34">
+        <v>0.01139244850991142</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>103.650617</v>
+      </c>
+      <c r="N34">
+        <v>310.951851</v>
+      </c>
+      <c r="O34">
+        <v>0.353224997847493</v>
+      </c>
+      <c r="P34">
+        <v>0.3536616844287238</v>
+      </c>
+      <c r="Q34">
+        <v>434.9667047219901</v>
+      </c>
+      <c r="R34">
+        <v>3914.700342497911</v>
+      </c>
+      <c r="S34">
+        <v>0.003984446050122956</v>
+      </c>
+      <c r="T34">
+        <v>0.004029072529782778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4.196470000000001</v>
+      </c>
+      <c r="H35">
+        <v>12.58941</v>
+      </c>
+      <c r="I35">
+        <v>0.011280192722496</v>
+      </c>
+      <c r="J35">
+        <v>0.01139244850991142</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.2220785</v>
+      </c>
+      <c r="N35">
+        <v>0.444157</v>
+      </c>
+      <c r="O35">
+        <v>0.0007568085936668807</v>
+      </c>
+      <c r="P35">
+        <v>0.0005051628162548184</v>
+      </c>
+      <c r="Q35">
+        <v>0.9319457628950002</v>
+      </c>
+      <c r="R35">
+        <v>5.591674577370001</v>
+      </c>
+      <c r="S35">
+        <v>8.536946790603582E-06</v>
+      </c>
+      <c r="T35">
+        <v>5.755041373304863E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4.196470000000001</v>
+      </c>
+      <c r="H36">
+        <v>12.58941</v>
+      </c>
+      <c r="I36">
+        <v>0.011280192722496</v>
+      </c>
+      <c r="J36">
+        <v>0.01139244850991142</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>144.6793443333333</v>
+      </c>
+      <c r="N36">
+        <v>434.038033</v>
+      </c>
+      <c r="O36">
+        <v>0.4930444465247936</v>
+      </c>
+      <c r="P36">
+        <v>0.4936539897198103</v>
+      </c>
+      <c r="Q36">
+        <v>607.1425281145033</v>
+      </c>
+      <c r="R36">
+        <v>5464.28275303053</v>
+      </c>
+      <c r="S36">
+        <v>0.005561636377556045</v>
+      </c>
+      <c r="T36">
+        <v>0.005623927659595281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4.196470000000001</v>
+      </c>
+      <c r="H37">
+        <v>12.58941</v>
+      </c>
+      <c r="I37">
+        <v>0.011280192722496</v>
+      </c>
+      <c r="J37">
+        <v>0.01139244850991142</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>42.688082</v>
+      </c>
+      <c r="N37">
+        <v>128.064246</v>
+      </c>
+      <c r="O37">
+        <v>0.1454742683544624</v>
+      </c>
+      <c r="P37">
+        <v>0.1456541159340275</v>
+      </c>
+      <c r="Q37">
+        <v>179.13925547054</v>
+      </c>
+      <c r="R37">
+        <v>1612.25329923486</v>
+      </c>
+      <c r="S37">
+        <v>0.001640977783202437</v>
+      </c>
+      <c r="T37">
+        <v>0.001659357016035077</v>
       </c>
     </row>
   </sheetData>
